--- a/2-Data Analysis/0-Matematicas para Data Science/SVL/Ejercicios/RocioRuiz_Ejercicio_ECI.xlsx
+++ b/2-Data Analysis/0-Matematicas para Data Science/SVL/Ejercicios/RocioRuiz_Ejercicio_ECI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocio\Documents\RR_DataScience-BootcampTheBridge\2-Data Analysis\0-Matematicas para Data Science\SVL\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B219461-43F5-4841-8E43-552E212EAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEE001-A579-47A3-948A-809432E347A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{890550CB-9BAA-4E1B-8380-D6086FBA4376}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>[li,Li)</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Fi</t>
-  </si>
-  <si>
-    <t>Tiquet medio</t>
   </si>
   <si>
     <t>(0,10)</t>
@@ -123,15 +120,9 @@
     <t>Mediana</t>
   </si>
   <si>
-    <t>Como la mediana es 80€ y la media del total de tiquets 123,38€, significa que la media no es representativa</t>
-  </si>
-  <si>
     <t>Apartado c</t>
   </si>
   <si>
-    <t>No hay valores atípicos, ya que la estructura que sigue es muy similar a una distribución normal</t>
-  </si>
-  <si>
     <t>Apartado d</t>
   </si>
   <si>
@@ -151,6 +142,21 @@
   </si>
   <si>
     <t>Intervalo 101€-110€</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>entre 51-70€</t>
+  </si>
+  <si>
+    <t>61-70€</t>
+  </si>
+  <si>
+    <t>La media no es representativa, puesto que se encuentra alejado de la mediana y la moda</t>
+  </si>
+  <si>
+    <t>El último valor (+151€) es un outlier</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29936ED-B9C3-4140-888E-E39F0ECEE56B}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,22 +550,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -568,20 +569,17 @@
         <f>E2</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>15.5</v>
-      </c>
-      <c r="D3">
-        <f>D2+B3</f>
-        <v>20.5</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f>E3*100</f>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0.01</v>
@@ -590,413 +588,372 @@
         <f>F2+E3</f>
         <v>0.01</v>
       </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <f>(21+30)/2</f>
-        <v>25.5</v>
-      </c>
-      <c r="D4">
-        <f>D3+B4</f>
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C17" si="0">E4*100</f>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0.02</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F17" si="0">F3+E4</f>
+        <f t="shared" ref="F4:F17" si="1">F3+E4</f>
         <v>0.03</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>35.5</v>
-      </c>
-      <c r="D5">
-        <f>D4+B5</f>
-        <v>81.5</v>
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0.06</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.09</v>
-      </c>
-      <c r="H5">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>45.5</v>
-      </c>
-      <c r="D6">
-        <f>D5+B6</f>
-        <v>127</v>
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0.15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24</v>
-      </c>
-      <c r="H6">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>55.5</v>
-      </c>
-      <c r="D7">
-        <f>D6+B7</f>
-        <v>182.5</v>
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0.24</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>65.5</v>
-      </c>
-      <c r="D8">
-        <f>D7+B8</f>
-        <v>248</v>
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0.25</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73</v>
-      </c>
-      <c r="H8">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>75.5</v>
-      </c>
-      <c r="D9">
-        <f>D8+B9</f>
-        <v>323.5</v>
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0.13</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86</v>
-      </c>
-      <c r="H9">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>85.5</v>
-      </c>
-      <c r="D10">
-        <f>D9+B10</f>
-        <v>409</v>
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0.05</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91</v>
-      </c>
-      <c r="H10">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>95.5</v>
-      </c>
-      <c r="D11">
-        <f>D10+B11</f>
-        <v>504.5</v>
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0.03</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94000000000000006</v>
-      </c>
-      <c r="H11">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>105.5</v>
-      </c>
-      <c r="D12">
-        <f>D11+B12</f>
-        <v>610</v>
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0.01</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95000000000000007</v>
-      </c>
-      <c r="H12">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>115.5</v>
-      </c>
-      <c r="D13">
-        <f>D12+B13</f>
-        <v>725.5</v>
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0.01</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96000000000000008</v>
-      </c>
-      <c r="H13">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>125.5</v>
-      </c>
-      <c r="D14">
-        <f>D13+B14</f>
-        <v>851</v>
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0.01</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97000000000000008</v>
-      </c>
-      <c r="H14">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>135.5</v>
+        <v>135</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="D15">
-        <f>D14+B15</f>
-        <v>986.5</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97000000000000008</v>
-      </c>
-      <c r="H15">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="D16">
-        <f>D15+B16</f>
-        <v>1132</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="H16">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <f>D16+B17</f>
-        <v>1132</v>
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>850</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0.03</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <f>SUM(E2:E17)</f>
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="5">
+        <f>((B2*C2)+(B3*C3)+(B4*C4)+(B5*C5)+(B6*C6)+(B7*C7)+(B8*C8)+(B9*C9)+(B10*C10)+(B11*C11)+(B12*C12)+(B13*C13)+(B14*C14)+(B15*C15)+(B16*C16)+(B17*C17))/100</f>
+        <v>84.75</v>
+      </c>
+      <c r="C22">
+        <f>(B2*E2)+(B3*E3)+(B4*E4)+(B5*E5)+(B6*E6)+(B7*E7)+(B8*E8)+(B9*E9)+(B10*E10)+(B11*E11)+(B12*E12)+(B13*E13)+(B14*E14)+(B15*E15)+(B16*E16)+(B17*E17)</f>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
-        <f>SUM(H2:H17)/16</f>
-        <v>123.375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <f>SUM(H9+H10)/2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
